--- a/ecs265-fall-2020/paperlist-ecs265.xlsx
+++ b/ecs265-fall-2020/paperlist-ecs265.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msadoghi/git/msadoghi.github.io/ecs265-fall-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE90382-B737-A84A-8D7A-0C6D9FA856AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA91B9-60DC-EF45-806E-A328477EF423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28200" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Transaction concept: Virtues and limitations. VLDB’81.</t>
   </si>
@@ -167,9 +167,6 @@
     <t>November 9</t>
   </si>
   <si>
-    <t>RCC: Resilient Concurrent Consensus for High-Throughput Secure Transaction Processing. ICDE'21</t>
-  </si>
-  <si>
     <t>Vetran's Day</t>
   </si>
   <si>
@@ -200,7 +197,13 @@
     <t>December 9</t>
   </si>
   <si>
-    <t>The Libra Blockchain. 2019</t>
+    <t>The Libra Blockchain. 2019.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>RCC: Resilient Concurrent Consensus for High-Throughput Secure Transaction Processing. [TBA]</t>
   </si>
 </sst>
 </file>
@@ -303,21 +306,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -331,14 +319,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -351,9 +347,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -367,18 +360,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV37"/>
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -1561,625 +1552,541 @@
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="17" customHeight="1">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="17" customHeight="1">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="17" customHeight="1">
-      <c r="A4" s="9">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="31" customHeight="1">
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="17" customHeight="1">
+      <c r="C5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="C6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="17" customHeight="1">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="17" customHeight="1">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="17" customHeight="1">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="17" customHeight="1">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="C10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="17" customHeight="1">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="C11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="17" customHeight="1">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="17" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="C13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="17" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="17" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="C15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="17" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="C16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="17" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="C17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="17" customHeight="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="C18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="17" customHeight="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="C19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="17" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="17" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="C21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="17" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="C22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="17" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="17" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="C24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="17" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="17" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="17" customHeight="1">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="C27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="17" customHeight="1">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="C28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="17" customHeight="1">
       <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="17" customHeight="1">
       <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.25" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
